--- a/inex2008ltw/INEX 2008 paper/Waterloo-ourbest.xlsx
+++ b/inex2008ltw/INEX 2008 paper/Waterloo-ourbest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="18972" windowHeight="12468" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Waterloo-ourbest" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Run ID</t>
   </si>
@@ -227,24 +227,9 @@
     <t>single-5</t>
   </si>
   <si>
-    <t>Single Partial Results</t>
-  </si>
-  <si>
-    <t>Single Full Results</t>
-  </si>
-  <si>
     <t>Titles Only</t>
   </si>
   <si>
-    <t>Unweighted Sort</t>
-  </si>
-  <si>
-    <t>Weighted Sort</t>
-  </si>
-  <si>
-    <t>2007 Best</t>
-  </si>
-  <si>
     <t>fs-5-ordered</t>
   </si>
   <si>
@@ -285,6 +270,21 @@
   </si>
   <si>
     <t>Weighted</t>
+  </si>
+  <si>
+    <t>Otago 2007</t>
+  </si>
+  <si>
+    <t>Weighted merge</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Single Search</t>
+  </si>
+  <si>
+    <t>Single Search Contribution</t>
   </si>
 </sst>
 </file>
@@ -848,7 +848,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -857,7 +857,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000"/>
+              <a:defRPr lang="en-NZ" sz="1000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1000"/>
@@ -1160,11 +1160,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67772800"/>
-        <c:axId val="67775488"/>
+        <c:axId val="167125760"/>
+        <c:axId val="167128448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67772800"/>
+        <c:axId val="167125760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1178,7 +1178,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -1191,16 +1191,26 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67775488"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167128448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67775488"/>
+        <c:axId val="167128448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.6000000000000002"/>
+          <c:min val="0.60000000000000031"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -1210,7 +1220,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1223,7 +1233,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67772800"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167125760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1238,6 +1258,16 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-NZ"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1256,7 +1286,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1264,7 +1294,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1273,7 +1303,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000"/>
+              <a:defRPr lang="en-NZ" sz="1000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ" sz="1000"/>
@@ -1853,11 +1883,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67889792"/>
-        <c:axId val="68170880"/>
+        <c:axId val="163822592"/>
+        <c:axId val="172496384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67889792"/>
+        <c:axId val="163822592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1871,7 +1901,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1894,13 +1924,23 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68170880"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68170880"/>
+        <c:axId val="172496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1913,7 +1953,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -1926,7 +1966,17 @@
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67889792"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163822592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1935,6 +1985,16 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-NZ"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1953,7 +2013,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1961,7 +2021,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1970,7 +2030,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-NZ"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
@@ -1979,6 +2039,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2049,11 +2110,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68248704"/>
-        <c:axId val="68251008"/>
+        <c:axId val="172647936"/>
+        <c:axId val="172650496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68248704"/>
+        <c:axId val="172647936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2126,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -2074,16 +2135,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68251008"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172650496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68251008"/>
+        <c:axId val="172650496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2167,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -2104,10 +2176,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68248704"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172647936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2128,7 +2211,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2136,7 +2219,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2145,7 +2228,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-NZ"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
@@ -2158,8 +2241,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14243500317057728"/>
-          <c:y val="1.9856160100062567E-2"/>
+          <c:x val="0.14243500317057731"/>
+          <c:y val="1.9856160100062571E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2422,11 +2505,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68296704"/>
-        <c:axId val="68298624"/>
+        <c:axId val="172564864"/>
+        <c:axId val="172566784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68296704"/>
+        <c:axId val="172564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2521,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -2447,16 +2530,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68298624"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172566784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68298624"/>
+        <c:axId val="172566784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2562,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -2477,22 +2571,44 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68296704"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172564864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-NZ"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2500,7 +2616,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2509,7 +2625,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-NZ"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
@@ -2518,6 +2634,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2773,11 +2890,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68715264"/>
-        <c:axId val="68717568"/>
+        <c:axId val="172913792"/>
+        <c:axId val="172916096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68715264"/>
+        <c:axId val="172913792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,7 +2906,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -2798,16 +2915,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68717568"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172916096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68717568"/>
+        <c:axId val="172916096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2947,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -2828,16 +2956,38 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68715264"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172913792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-NZ"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2856,7 +3006,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2864,7 +3014,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2873,7 +3023,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-NZ"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2882,6 +3032,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3070,11 +3221,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72511488"/>
-        <c:axId val="72513792"/>
+        <c:axId val="173040000"/>
+        <c:axId val="173042304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72511488"/>
+        <c:axId val="173040000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3088,7 +3239,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -3097,16 +3248,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72513792"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173042304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72513792"/>
+        <c:axId val="173042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3119,7 +3281,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-NZ"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
@@ -3128,16 +3290,38 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72511488"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-NZ"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173040000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-NZ"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3155,7 +3339,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3163,7 +3347,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3172,26 +3356,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-NZ"/>
-              <a:t>Single Search vs. Multiple Searches</a:t>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Comparison of Single and Multiple Approaches</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single vs Multiple'!$A$13</c:f>
+              <c:f>'Single vs Multiple'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3201,33 +3386,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
+            <a:ln w="12700"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
+              <a:ln w="12700"/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$B$2:$B$6</c:f>
+              <c:f>'Single vs Multiple'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0.12265364830796199</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3244,50 +3440,62 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single vs Multiple'!$A$14</c:f>
+              <c:f>'Single vs Multiple'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single Full Results</c:v>
+                  <c:v>Single Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
+            <a:ln w="12700"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
+              <a:ln w="12700"/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$B$7:$B$11</c:f>
+              <c:f>'Single vs Multiple'!$A$8:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0.196651488982057</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3304,50 +3512,62 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single vs Multiple'!$A$15</c:f>
+              <c:f>'Single vs Multiple'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single Partial Results</c:v>
+                  <c:v>Single Search Contribution</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
+            <a:ln w="12700"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
+              <a:ln w="12700"/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$B$17:$B$21</c:f>
+              <c:f>'Single vs Multiple'!$A$18:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0.10126019053910899</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3364,14 +3584,357 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="72466432"/>
-        <c:axId val="72468736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="72466432"/>
+        <c:axId val="175845760"/>
+        <c:axId val="175307776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175845760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Search Terms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175307776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175307776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175845760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Precision of merging methods</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorted Runs'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Otago 2007</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75111111111110995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68444444444444397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61277777777777698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55481481481481398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorted Runs'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weighted merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64666666666666595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61777777777777698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52296296296296196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47511111111111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorted Runs'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72888888888888803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.663333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60277777777777697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54037037037036995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46711111111111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="85574016"/>
+        <c:axId val="85564416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85574016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,389 +3949,22 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Number of Search Terms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72468736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="72468736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>MAP</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72466432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr baseline="0">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-NZ"/>
-              <a:t>Top Preforming Runs with Sorted</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2007 Best</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.75111111111110995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68444444444444397</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61277777777777698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55481481481481398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Weighted Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.64666666666666595</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61777777777777698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52296296296296196</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47511111111111098</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unweighted Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.72888888888888803</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.663333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60277777777777697</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54037037037036995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46711111111111098</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="72597504"/>
-        <c:axId val="72599808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="72597504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Recall</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72599808"/>
+        <c:crossAx val="85564416"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="72599808"/>
+        <c:axId val="85564416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -3787,21 +3983,22 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Precision</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-NZ"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72597504"/>
+        <c:crossAx val="85574016"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3810,8 +4007,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr baseline="0">
+        <a:defRPr sz="900">
           <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3819,7 +4017,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3871,7 +4069,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>372449</xdr:colOff>
+      <xdr:colOff>235289</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>52049</xdr:rowOff>
     </xdr:to>
@@ -4039,20 +4237,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219375</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>37125</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4074,20 +4272,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>267000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>56175</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4398,17 +4596,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4436,7 +4634,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>0.87777777777777699</v>
@@ -4459,7 +4657,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>0.88444444444444303</v>
@@ -4482,7 +4680,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0.89111111111110997</v>
@@ -4538,13 +4736,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4562,24 +4760,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4991,7 +5189,7 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -5261,7 +5459,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5480,9 +5678,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5533,7 +5731,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>0.40976758008677699</v>
@@ -5592,17 +5790,17 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5717,442 +5915,492 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>0.12265364830796199</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>0.15206961652092099</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>0.38</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>0.36</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>0.34277777777777702</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>0.32740740740740698</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>0.30644444444444402</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>0.28425565406127101</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>0.33115342368177703</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>0.637777777777777</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>0.612222222222222</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>0.55555555555555503</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>0.519629629629629</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>0.31784295120804601</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>0.36331802140927999</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>0.71777777777777696</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>0.67888888888888799</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>0.61777777777777698</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>0.55925925925925901</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>0.49933333333333302</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>0.33908263137662398</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>0.37917918820206498</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>0.75111111111110995</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>0.68444444444444397</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>0.61277777777777698</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>0.55481481481481398</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>0.31909702840894999</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>0.35566199276086802</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>0.72888888888888803</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>0.663333333333333</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>0.60277777777777697</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>0.54037037037036995</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>0.46711111111111098</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>0.196651488982057</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>0.231157675396303</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>0.38</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>0.36</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>0.34277777777777702</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>0.32740740740740698</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>0.30644444444444402</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>0.33546916091481199</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>0.37919062166066803</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>0.637777777777777</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>0.612222222222222</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>0.55555555555555503</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>0.519629629629629</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>0.34043233243894899</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>0.38575162621199299</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>0.71777777777777696</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>0.67888888888888799</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>0.61777777777777698</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>0.55925925925925901</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>0.49933333333333302</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>0.34820367752610298</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>0.3874503645972</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>0.75111111111110995</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>0.68444444444444397</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>0.61277777777777698</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>0.55481481481481398</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>0.31909702840894999</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>0.35566199276086802</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>0.72888888888888803</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>0.663333333333333</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>0.60277777777777697</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>0.54037037037036995</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>0.46711111111111098</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>0.10126019053910899</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>0.121748370186841</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>0.38</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>0.36</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>0.34277777777777702</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>0.32740740740740698</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>0.30644444444444402</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="B18">
+      <c r="C19">
         <v>0.26788837037485802</v>
       </c>
-      <c r="C18">
+      <c r="D19">
         <v>0.312903296885153</v>
       </c>
-      <c r="D18">
+      <c r="E19">
         <v>0.637777777777777</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>0.612222222222222</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>0.55555555555555503</v>
       </c>
-      <c r="G18">
+      <c r="H19">
         <v>0.519629629629629</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B19">
+      <c r="C20">
         <v>0.31101757261192498</v>
       </c>
-      <c r="C19">
+      <c r="D20">
         <v>0.356905703423471</v>
       </c>
-      <c r="D19">
+      <c r="E20">
         <v>0.71777777777777696</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>0.67888888888888799</v>
       </c>
-      <c r="F19">
+      <c r="G20">
         <v>0.61777777777777698</v>
       </c>
-      <c r="G19">
+      <c r="H20">
         <v>0.55925925925925901</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>0.49933333333333302</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B20">
+      <c r="C21">
         <v>0.336123235112056</v>
       </c>
-      <c r="C20">
+      <c r="D21">
         <v>0.37670804438013</v>
       </c>
-      <c r="D20">
+      <c r="E21">
         <v>0.75111111111110995</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>0.68444444444444397</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>0.61277777777777698</v>
       </c>
-      <c r="G20">
+      <c r="H21">
         <v>0.55481481481481398</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="B21">
+      <c r="C22">
         <v>0.31909702840894999</v>
       </c>
-      <c r="C21">
+      <c r="D22">
         <v>0.35566199276086802</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <v>0.72888888888888803</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>0.663333333333333</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <v>0.60277777777777697</v>
       </c>
-      <c r="G21">
+      <c r="H22">
         <v>0.54037037037036995</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>0.46711111111111098</v>
       </c>
     </row>
@@ -6164,119 +6412,118 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="H2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>0.33908263137662398</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>0.75111111111110995</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>0.68444444444444397</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>0.61277777777777698</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>0.55481481481481398</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
         <v>0.35042788802865799</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>0.64666666666666595</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>0.61777777777777698</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>0.56333333333333302</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>0.52296296296296196</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>0.47511111111111098</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
         <v>0.31909702840894999</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>0.72888888888888803</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>0.663333333333333</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>0.60277777777777697</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>0.54037037037036995</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>0.46711111111111098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/inex2008ltw/INEX 2008 paper/Waterloo-ourbest.xlsx
+++ b/inex2008ltw/INEX 2008 paper/Waterloo-ourbest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12" windowWidth="18972" windowHeight="12468" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="12465" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Waterloo-ourbest" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>Run ID</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Search Terms</t>
   </si>
   <si>
-    <t>Whole Document</t>
-  </si>
-  <si>
-    <t>First Paragraph</t>
-  </si>
-  <si>
     <t>Mulitple Searches</t>
   </si>
   <si>
@@ -227,21 +221,12 @@
     <t>single-5</t>
   </si>
   <si>
-    <t>Titles Only</t>
-  </si>
-  <si>
     <t>fs-5-ordered</t>
   </si>
   <si>
     <t>fs-2-adjusted</t>
   </si>
   <si>
-    <t>Learned</t>
-  </si>
-  <si>
-    <t>Var Lengths</t>
-  </si>
-  <si>
     <t>Kelly+</t>
   </si>
   <si>
@@ -285,14 +270,27 @@
   </si>
   <si>
     <t>Single Search Contribution</t>
+  </si>
+  <si>
+    <t>Unweighted</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -789,12 +787,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -848,7 +847,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -866,7 +865,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1160,11 +1158,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="167125760"/>
-        <c:axId val="167128448"/>
+        <c:axId val="79577472"/>
+        <c:axId val="79580160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167125760"/>
+        <c:axId val="79577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1187,7 +1185,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1201,16 +1198,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167128448"/>
+        <c:crossAx val="79580160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167128448"/>
+        <c:axId val="79580160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.60000000000000031"/>
+          <c:min val="0.60000000000000064"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -1229,7 +1226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1243,7 +1239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167125760"/>
+        <c:crossAx val="79577472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1257,7 +1253,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1286,7 +1281,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1294,7 +1289,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1322,7 +1317,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1883,11 +1877,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="163822592"/>
-        <c:axId val="172496384"/>
+        <c:axId val="82451072"/>
+        <c:axId val="82470016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163822592"/>
+        <c:axId val="82451072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1920,7 +1914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1934,13 +1927,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172496384"/>
+        <c:crossAx val="82470016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172496384"/>
+        <c:axId val="82470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1962,7 +1955,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
@@ -1976,7 +1968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163822592"/>
+        <c:crossAx val="82451072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1984,7 +1976,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2013,7 +2004,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2021,7 +2012,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2039,7 +2030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2110,11 +2100,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="172647936"/>
-        <c:axId val="172650496"/>
+        <c:axId val="82556032"/>
+        <c:axId val="82558336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172647936"/>
+        <c:axId val="82556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2125,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2148,14 +2137,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172650496"/>
+        <c:crossAx val="82558336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172650496"/>
+        <c:axId val="82558336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2165,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2190,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172647936"/>
+        <c:crossAx val="82556032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,7 +2199,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2219,7 +2207,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2241,8 +2229,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14243500317057731"/>
-          <c:y val="1.9856160100062571E-2"/>
+          <c:x val="0.14243500317057739"/>
+          <c:y val="1.9856160100062581E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2505,11 +2493,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="172564864"/>
-        <c:axId val="172566784"/>
+        <c:axId val="82605184"/>
+        <c:axId val="82607104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172564864"/>
+        <c:axId val="82605184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,7 +2518,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2543,14 +2530,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172566784"/>
+        <c:crossAx val="82607104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172566784"/>
+        <c:axId val="82607104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2558,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2585,14 +2571,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172564864"/>
+        <c:crossAx val="82605184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2608,7 +2593,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2616,738 +2601,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-NZ"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-NZ"/>
-              <a:t>Comparing Single Searches with Different Parts of a Document</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Search Comaprison'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>First Paragraph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Search Comaprison'!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Search Comaprison'!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.58888888888888902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42055555555555502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35592592592592498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.291333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Search Comaprison'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Titles Only</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Search Comaprison'!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Search Comaprison'!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.68222222222222195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64222222222222203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58888888888888902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54629629629629595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49466666666666598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Single Search Comaprison'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Whole Document</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Single Search Comaprison'!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>P5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>P10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Single Search Comaprison'!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.50222222222222201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28888888888888797</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24592592592592499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19666666666666599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="172913792"/>
-        <c:axId val="172916096"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="172913792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-NZ"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Recall</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-NZ"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="172916096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="172916096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-NZ"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Precision</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-NZ"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="172913792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-NZ"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr baseline="0">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-NZ"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MAP From Searches with Learned Weights for Search Terms and Variable Length Searches</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GA Top Scoreres Compared'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Learned</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'GA Top Scoreres Compared'!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GA Top Scoreres Compared'!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.33200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.34200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33700000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GA Top Scoreres Compared'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Var Lengths</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GA Top Scoreres Compared'!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12265364830796199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28425565406127101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31784295120804601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33908263137662398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31909702840894999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.31558734985742898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.30186414255594901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30091486002830897</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29188394569944798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28528185955156299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="173040000"/>
-        <c:axId val="173042304"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="173040000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-NZ"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Search Terms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-NZ"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="173042304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="173042304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-NZ"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>MAP</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-NZ"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="173040000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-NZ"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr baseline="0">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3360,7 +2614,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1000"/>
-              <a:t>Comparison of Single and Multiple Approaches</a:t>
+              <a:t>Different Sources of Search Terms</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3376,11 +2630,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single vs Multiple'!$B$14</c:f>
+              <c:f>'Single Search Comaprison'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mulitple Searches</c:v>
+                  <c:v>Overview</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3395,48 +2649,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$A$3:$A$7</c:f>
+              <c:f>'Single Search Comaprison'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$C$3:$C$7</c:f>
+              <c:f>'Single Search Comaprison'!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12265364830796199</c:v>
+                  <c:v>0.58888888888888902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28425565406127101</c:v>
+                  <c:v>0.52333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31784295120804601</c:v>
+                  <c:v>0.42055555555555502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33908263137662398</c:v>
+                  <c:v>0.35592592592592498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31909702840894999</c:v>
+                  <c:v>0.291333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,11 +2702,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single vs Multiple'!$B$15</c:f>
+              <c:f>'Single Search Comaprison'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single Search</c:v>
+                  <c:v>Title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3467,48 +2721,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$A$8:$A$12</c:f>
+              <c:f>'Single Search Comaprison'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$C$8:$C$12</c:f>
+              <c:f>'Single Search Comaprison'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.196651488982057</c:v>
+                  <c:v>0.68222222222222195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33546916091481199</c:v>
+                  <c:v>0.64222222222222203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34043233243894899</c:v>
+                  <c:v>0.58888888888888902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34820367752610298</c:v>
+                  <c:v>0.54629629629629595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31909702840894999</c:v>
+                  <c:v>0.49466666666666598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,11 +2774,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Single vs Multiple'!$B$16</c:f>
+              <c:f>'Single Search Comaprison'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single Search Contribution</c:v>
+                  <c:v>Document</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3539,187 +2793,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$A$18:$A$22</c:f>
+              <c:f>'Single Search Comaprison'!$C$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Single vs Multiple'!$C$18:$C$22</c:f>
+              <c:f>'Single Search Comaprison'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10126019053910899</c:v>
+                  <c:v>0.50222222222222201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26788837037485802</c:v>
+                  <c:v>0.38666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31101757261192498</c:v>
+                  <c:v>0.28888888888888797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.336123235112056</c:v>
+                  <c:v>0.24592592592592499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31909702840894999</c:v>
+                  <c:v>0.19666666666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="175845760"/>
-        <c:axId val="175307776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="175845760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Search Terms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175307776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="175307776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>MAP</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175845760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="900">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000"/>
-              <a:t>Precision of merging methods</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sorted Runs'!$A$3</c:f>
+              <c:f>'Single Search Comaprison'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3738,7 +2865,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:f>'Single Search Comaprison'!$E$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3762,7 +2889,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sorted Runs'!$D$3:$H$3</c:f>
+              <c:f>'Single Search Comaprison'!$E$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3786,157 +2913,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Weighted merge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700"/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:ln w="12700"/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$D$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.64666666666666595</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61777777777777698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52296296296296196</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47511111111111098</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sorted Runs'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700"/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:ln w="12700"/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sorted Runs'!$D$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.72888888888888803</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.663333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60277777777777697</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54037037037036995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46711111111111098</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="85574016"/>
-        <c:axId val="85564416"/>
+        <c:axId val="82814464"/>
+        <c:axId val="82829312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85574016"/>
+        <c:axId val="82814464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -3959,15 +2943,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85564416"/>
+        <c:crossAx val="82829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85564416"/>
+        <c:axId val="82829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -3990,7 +2973,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85574016"/>
+        <c:crossAx val="82814464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4017,7 +3000,1060 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-NZ"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Weighting Individual Search Terms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GA Top Scoreres Compared'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GA Top Scoreres Compared'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GA Top Scoreres Compared'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12265364830796199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GA Top Scoreres Compared'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unweighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GA Top Scoreres Compared'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GA Top Scoreres Compared'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12265364830796199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28425565406127101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31784295120804601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33908263137662398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31909702840894999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31558734985742898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30186414255594901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30091486002830897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29188394569944798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28528185955156299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="82936576"/>
+        <c:axId val="82938880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82936576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Search Terms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82938880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82938880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82936576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-NZ"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Comparison of Single and Multiple Approaches</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single vs Multiple'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mulitple Searches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12265364830796199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28425565406127101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31784295120804601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33908263137662398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31909702840894999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single vs Multiple'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$A$8:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.196651488982057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33546916091481199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34043233243894899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34820367752610298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31909702840894999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Single vs Multiple'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Search Contribution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single vs Multiple'!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10126019053910899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26788837037485802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31101757261192498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.336123235112056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31909702840894999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="83026688"/>
+        <c:axId val="83028992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83026688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Search Terms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83028992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83028992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83026688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-NZ"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Precision of merging methods</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorted Runs'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Otago 2007</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75111111111110995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68444444444444397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61277777777777698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55481481481481398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorted Runs'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weighted merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64666666666666595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61777777777777698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52296296296296196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47511111111111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorted Runs'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sorted Runs'!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72888888888888803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.663333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60277777777777697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54037037037036995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46711111111111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="83354368"/>
+        <c:axId val="83356672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83354368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83356672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83356672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83354368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4169,18 +4205,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132375</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4202,20 +4238,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57450</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>132375</xdr:rowOff>
+      <xdr:rowOff>39300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4237,16 +4273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>490560</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100260</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4599,14 +4635,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4634,7 +4670,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>0.87777777777777699</v>
@@ -4657,7 +4693,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>0.88444444444444303</v>
@@ -4680,7 +4716,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>0.89111111111110997</v>
@@ -4740,9 +4776,9 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4760,24 +4796,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5186,10 +5222,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -5456,10 +5492,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5672,112 +5708,439 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>0.14304903498586399</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.58888888888888902</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.52333333333333298</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>0.42055555555555502</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0.35592592592592498</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0.291333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>0.40976758008677699</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.14304903498586399</v>
       </c>
       <c r="C3">
-        <v>0.68222222222222195</v>
+        <v>0.58888888888888902</v>
       </c>
       <c r="D3">
-        <v>0.64222222222222203</v>
+        <v>0.52333333333333298</v>
       </c>
       <c r="E3">
-        <v>0.58888888888888902</v>
+        <v>0.42055555555555502</v>
       </c>
       <c r="F3">
-        <v>0.54629629629629595</v>
+        <v>0.35592592592592498</v>
       </c>
       <c r="G3">
-        <v>0.49466666666666598</v>
+        <v>0.291333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.40976758008677699</v>
+      </c>
+      <c r="C4">
+        <v>0.68222222222222195</v>
+      </c>
+      <c r="D4">
+        <v>0.64222222222222203</v>
+      </c>
+      <c r="E4">
+        <v>0.58888888888888902</v>
+      </c>
+      <c r="F4">
+        <v>0.54629629629629595</v>
+      </c>
+      <c r="G4">
+        <v>0.49466666666666598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5">
         <v>7.9775092183198795E-2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.50222222222222201</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.38666666666666599</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.28888888888888797</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.24592592592592499</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.19666666666666599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.12265364830796199</v>
+      </c>
+      <c r="D18">
+        <v>0.15206961652092099</v>
+      </c>
+      <c r="E18">
+        <v>0.38</v>
+      </c>
+      <c r="F18">
+        <v>0.36</v>
+      </c>
+      <c r="G18">
+        <v>0.34277777777777702</v>
+      </c>
+      <c r="H18">
+        <v>0.32740740740740698</v>
+      </c>
+      <c r="I18">
+        <v>0.30644444444444402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.28425565406127101</v>
+      </c>
+      <c r="D19">
+        <v>0.33115342368177703</v>
+      </c>
+      <c r="E19">
+        <v>0.637777777777777</v>
+      </c>
+      <c r="F19">
+        <v>0.612222222222222</v>
+      </c>
+      <c r="G19">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="H19">
+        <v>0.519629629629629</v>
+      </c>
+      <c r="I19">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.31784295120804601</v>
+      </c>
+      <c r="D20">
+        <v>0.36331802140927999</v>
+      </c>
+      <c r="E20">
+        <v>0.71777777777777696</v>
+      </c>
+      <c r="F20">
+        <v>0.67888888888888799</v>
+      </c>
+      <c r="G20">
+        <v>0.61777777777777698</v>
+      </c>
+      <c r="H20">
+        <v>0.55925925925925901</v>
+      </c>
+      <c r="I20">
+        <v>0.49933333333333302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.33908263137662398</v>
+      </c>
+      <c r="D21">
+        <v>0.37917918820206498</v>
+      </c>
+      <c r="E21">
+        <v>0.75111111111110995</v>
+      </c>
+      <c r="F21">
+        <v>0.68444444444444397</v>
+      </c>
+      <c r="G21">
+        <v>0.61277777777777698</v>
+      </c>
+      <c r="H21">
+        <v>0.55481481481481398</v>
+      </c>
+      <c r="I21">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.31909702840894999</v>
+      </c>
+      <c r="D22">
+        <v>0.35566199276086802</v>
+      </c>
+      <c r="E22">
+        <v>0.72888888888888803</v>
+      </c>
+      <c r="F22">
+        <v>0.663333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.60277777777777697</v>
+      </c>
+      <c r="H22">
+        <v>0.54037037037036995</v>
+      </c>
+      <c r="I22">
+        <v>0.46711111111111098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.196651488982057</v>
+      </c>
+      <c r="D23">
+        <v>0.231157675396303</v>
+      </c>
+      <c r="E23">
+        <v>0.38</v>
+      </c>
+      <c r="F23">
+        <v>0.36</v>
+      </c>
+      <c r="G23">
+        <v>0.34277777777777702</v>
+      </c>
+      <c r="H23">
+        <v>0.32740740740740698</v>
+      </c>
+      <c r="I23">
+        <v>0.30644444444444402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.33546916091481199</v>
+      </c>
+      <c r="D24">
+        <v>0.37919062166066803</v>
+      </c>
+      <c r="E24">
+        <v>0.637777777777777</v>
+      </c>
+      <c r="F24">
+        <v>0.612222222222222</v>
+      </c>
+      <c r="G24">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="H24">
+        <v>0.519629629629629</v>
+      </c>
+      <c r="I24">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.34043233243894899</v>
+      </c>
+      <c r="D25">
+        <v>0.38575162621199299</v>
+      </c>
+      <c r="E25">
+        <v>0.71777777777777696</v>
+      </c>
+      <c r="F25">
+        <v>0.67888888888888799</v>
+      </c>
+      <c r="G25">
+        <v>0.61777777777777698</v>
+      </c>
+      <c r="H25">
+        <v>0.55925925925925901</v>
+      </c>
+      <c r="I25">
+        <v>0.49933333333333302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.34820367752610298</v>
+      </c>
+      <c r="D26">
+        <v>0.3874503645972</v>
+      </c>
+      <c r="E26">
+        <v>0.75111111111110995</v>
+      </c>
+      <c r="F26">
+        <v>0.68444444444444397</v>
+      </c>
+      <c r="G26">
+        <v>0.61277777777777698</v>
+      </c>
+      <c r="H26">
+        <v>0.55481481481481398</v>
+      </c>
+      <c r="I26">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.31909702840894999</v>
+      </c>
+      <c r="D27">
+        <v>0.35566199276086802</v>
+      </c>
+      <c r="E27">
+        <v>0.72888888888888803</v>
+      </c>
+      <c r="F27">
+        <v>0.663333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.60277777777777697</v>
+      </c>
+      <c r="H27">
+        <v>0.54037037037036995</v>
+      </c>
+      <c r="I27">
+        <v>0.46711111111111098</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5787,23 +6150,29 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.12265364830796199</v>
+      </c>
       <c r="C2">
         <v>0.12265364830796199</v>
       </c>
@@ -5917,15 +6286,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="E1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6104,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0.196651488982057</v>
@@ -6133,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0.33546916091481199</v>
@@ -6162,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0.34043233243894899</v>
@@ -6191,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0.34820367752610298</v>
@@ -6220,7 +6589,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>0.31909702840894999</v>
@@ -6246,17 +6615,17 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6264,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>0.10126019053910899</v>
@@ -6293,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>0.26788837037485802</v>
@@ -6322,7 +6691,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>0.31101757261192498</v>
@@ -6351,7 +6720,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>0.336123235112056</v>
@@ -6380,7 +6749,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>0.31909702840894999</v>
@@ -6418,11 +6787,11 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="D1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6450,7 +6819,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -6476,10 +6845,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>0.35042788802865799</v>
@@ -6502,10 +6871,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>0.31909702840894999</v>
